--- a/posesiones/1381251.xlsx
+++ b/posesiones/1381251.xlsx
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>15</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>19</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>24</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>10</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>8</v>
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>21</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>8</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3023,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>35</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>8</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3558,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R38">
         <v>20</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R40">
         <v>21</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R42">
         <v>19</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R47">
         <v>37</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R49">
         <v>12</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R51">
         <v>9</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53">
         <v>6</v>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R57">
         <v>28</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59">
         <v>18</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R64">
         <v>6</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R70">
         <v>24</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5290,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5343,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R74">
         <v>27</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R76">
         <v>15</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R78">
         <v>9</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R87">
         <v>18</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R90">
         <v>14</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R92">
         <v>9</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R98">
         <v>10</v>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R102">
         <v>19</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R103">
         <v>22</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R105">
         <v>5</v>
@@ -6913,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R107">
         <v>18</v>
@@ -7016,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R108">
         <v>20</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R109">
         <v>24</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R111">
         <v>24</v>
@@ -7213,10 +7213,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7263,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7539,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7592,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R120">
         <v>13</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R122">
         <v>25</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7795,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R124">
         <v>5</v>
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>41</v>
@@ -7898,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R128">
         <v>5</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8192,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8295,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R134">
         <v>22</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R145">
         <v>19</v>
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8930,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R147">
         <v>24</v>
@@ -8983,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9033,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R149">
         <v>11</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9136,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R151">
         <v>17</v>
@@ -9186,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9233,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R156">
         <v>19</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9577,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R160">
         <v>30</v>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R162">
         <v>21</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9777,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R164">
         <v>28</v>
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R166">
         <v>14</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R172">
         <v>17</v>
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R174">
         <v>24</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10374,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R176">
         <v>22</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10612,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>26</v>
@@ -10662,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R183">
         <v>22</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R185">
         <v>20</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10918,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R187">
         <v>12</v>
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11300,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R195">
         <v>18</v>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11447,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11550,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R200">
         <v>16</v>
@@ -11603,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11653,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>10</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11797,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R205">
         <v>26</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R207">
         <v>12</v>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12000,7 +12000,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R209">
         <v>23</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R211">
         <v>24</v>
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>16</v>
@@ -12212,7 +12212,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R213">
         <v>2</v>
@@ -12256,10 +12256,10 @@
         <v>1</v>
       </c>
       <c r="P214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12394,10 +12394,10 @@
         <v>1</v>
       </c>
       <c r="P217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R221">
         <v>12</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R224">
         <v>25</v>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12888,7 +12888,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>22</v>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12991,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R229">
         <v>11</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R231">
         <v>17</v>
@@ -13147,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R232">
         <v>17</v>
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13344,7 +13344,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R236">
         <v>21</v>
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R240">
         <v>0</v>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13688,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R243">
         <v>25</v>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R244">
         <v>15</v>
@@ -13794,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R246">
         <v>7</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13944,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R248">
         <v>4</v>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14135,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R256">
         <v>11</v>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R258">
         <v>13</v>
@@ -14479,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R259">
         <v>12</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14864,7 +14864,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R267">
         <v>14</v>
@@ -14914,7 +14914,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R269">
         <v>4</v>
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R270">
         <v>8</v>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15114,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R274">
         <v>16</v>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R276">
         <v>16</v>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R279">
         <v>5</v>
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15655,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>18</v>
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R285">
         <v>21</v>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R287">
         <v>6</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R291">
         <v>17</v>
@@ -16105,7 +16105,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R292">
         <v>7</v>
@@ -16158,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16208,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16258,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R295">
         <v>5</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16452,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16552,7 +16552,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R301">
         <v>36</v>
@@ -16605,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16655,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R303">
         <v>7</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16896,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16943,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16993,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R310">
         <v>13</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17096,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R312">
         <v>25</v>
@@ -17149,7 +17149,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R313">
         <v>13</v>
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17252,7 +17252,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R315">
         <v>23</v>
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R316">
         <v>14</v>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R318">
         <v>17</v>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17552,7 +17552,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17599,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17646,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17837,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R327">
         <v>4</v>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17934,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17984,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R330">
         <v>14</v>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18322,7 +18322,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R337">
         <v>21</v>
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R340">
         <v>20</v>
@@ -18522,7 +18522,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>15</v>
@@ -18575,7 +18575,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R342">
         <v>12</v>
@@ -18619,10 +18619,10 @@
         <v>1</v>
       </c>
       <c r="P343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q343">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18716,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18810,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18851,10 +18851,10 @@
         <v>1</v>
       </c>
       <c r="P348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18901,7 +18901,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18951,7 +18951,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19001,7 +19001,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19051,7 +19051,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19145,7 +19145,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19242,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R356">
         <v>23</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R358">
         <v>13</v>
@@ -19395,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19442,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19489,7 +19489,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19727,7 +19727,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R366">
         <v>26</v>
@@ -19780,7 +19780,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R367">
         <v>23</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19883,7 +19883,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R369">
         <v>23</v>
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20165,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20212,7 +20212,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20259,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R379">
         <v>26</v>
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20456,7 +20456,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>26</v>
@@ -20506,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20606,7 +20606,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R384">
         <v>4</v>
@@ -20659,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R385">
         <v>11</v>
@@ -20712,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20759,7 +20759,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20859,7 +20859,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R389">
         <v>13</v>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21003,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R394">
         <v>19</v>
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21300,7 +21300,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R398">
         <v>24</v>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R400">
         <v>11</v>
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21550,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21597,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21644,7 +21644,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21691,7 +21691,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21785,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21879,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21929,7 +21929,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R411">
         <v>6</v>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R412">
         <v>23</v>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R414">
         <v>7</v>
@@ -22135,7 +22135,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22229,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22279,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R418">
         <v>29</v>
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22382,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R420">
         <v>3</v>
@@ -22432,7 +22432,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22482,7 +22482,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R422">
         <v>0</v>
@@ -22529,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22579,7 +22579,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R424">
         <v>13</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22817,7 +22817,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22867,7 +22867,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R430">
         <v>20</v>
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22970,7 +22970,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R432">
         <v>12</v>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23067,7 +23067,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23161,7 +23161,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23208,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23258,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R438">
         <v>19</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23358,7 +23358,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R440">
         <v>16</v>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23505,7 +23505,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23602,7 +23602,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R445">
         <v>2</v>
@@ -23649,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23699,7 +23699,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R447">
         <v>15</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23846,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23896,7 +23896,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R451">
         <v>33</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23993,7 +23993,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24040,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24087,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24134,7 +24134,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24184,7 +24184,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R457">
         <v>15</v>
@@ -24237,7 +24237,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R458">
         <v>21</v>
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24337,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R460">
         <v>14</v>
@@ -24390,7 +24390,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24440,7 +24440,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R462">
         <v>6</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24637,7 +24637,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R466">
         <v>5</v>
@@ -24690,7 +24690,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R467">
         <v>1</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24787,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24834,7 +24834,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24881,7 +24881,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24975,7 +24975,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25069,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R479">
         <v>14</v>
@@ -25313,7 +25313,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R480">
         <v>20</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25413,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25513,7 +25513,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R484">
         <v>16</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25610,7 +25610,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25704,7 +25704,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>27</v>
@@ -26042,7 +26042,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26092,7 +26092,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R496">
         <v>1</v>
@@ -26142,7 +26142,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="498" spans="1:17">
@@ -26183,10 +26183,10 @@
         <v>1</v>
       </c>
       <c r="P498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="499" spans="1:17">
@@ -26227,7 +26227,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
